--- a/Libro.xlsx
+++ b/Libro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ESCRITORIO\TaxiMoto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC63480-B146-4D8C-9976-6577FC472DE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD1C091-A6BE-48DF-AB66-78AC4BD08B43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -612,7 +612,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F2" sqref="E2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Libro.xlsx
+++ b/Libro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ESCRITORIO\TaxiMoto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD1C091-A6BE-48DF-AB66-78AC4BD08B43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C42E22A-A1E7-48A8-B441-07F90716FAEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -612,7 +612,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="E2:F2"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Libro.xlsx
+++ b/Libro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ESCRITORIO\TaxiMoto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C42E22A-A1E7-48A8-B441-07F90716FAEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6252C963-EE16-4D7C-80A7-B2A5369DA15D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3705" yWindow="1890" windowWidth="25080" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
     <t>3496-461432</t>
   </si>
@@ -246,6 +246,21 @@
   </si>
   <si>
     <t>name</t>
+  </si>
+  <si>
+    <t>Wow coffee bar</t>
+  </si>
+  <si>
+    <t>Moreno 2201</t>
+  </si>
+  <si>
+    <t>[-31.447512460528124, -60.932169283415085]</t>
+  </si>
+  <si>
+    <t>wowcoffee</t>
+  </si>
+  <si>
+    <t>wowcoffee2201</t>
   </si>
 </sst>
 </file>
@@ -609,10 +624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E248A01-8996-694C-998D-284EA5AE4B47}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -865,11 +880,34 @@
         <v>67</v>
       </c>
     </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" t="s">
+        <v>74</v>
+      </c>
+      <c r="F13" t="s">
+        <v>75</v>
+      </c>
+    </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" s="2"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Libro.xlsx
+++ b/Libro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ESCRITORIO\TaxiMoto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6252C963-EE16-4D7C-80A7-B2A5369DA15D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{820630D4-88DC-46BB-9046-EF3887F465DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3705" yWindow="1890" windowWidth="25080" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4665" yWindow="1410" windowWidth="25080" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="88">
   <si>
     <t>3496-461432</t>
   </si>
@@ -261,13 +261,49 @@
   </si>
   <si>
     <t>wowcoffee2201</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>firstname</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>cadete</t>
+  </si>
+  <si>
+    <t>brendagimenez</t>
+  </si>
+  <si>
+    <t>rociorango</t>
+  </si>
+  <si>
+    <t>neriduarte</t>
+  </si>
+  <si>
+    <t>stephanholzer</t>
+  </si>
+  <si>
+    <t>lorenahofstetter</t>
+  </si>
+  <si>
+    <t>nahuelmeyer</t>
+  </si>
+  <si>
+    <t>serigiobaez</t>
+  </si>
+  <si>
+    <t>florenciatoledo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -283,6 +319,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -292,7 +359,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -300,16 +367,47 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -627,287 +725,462 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43.140625" customWidth="1"/>
     <col min="2" max="2" width="30.85546875" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" customWidth="1"/>
-    <col min="4" max="4" width="41.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="33.140625" customWidth="1"/>
+    <col min="4" max="4" width="65.42578125" customWidth="1"/>
+    <col min="5" max="5" width="28" customWidth="1"/>
     <col min="6" max="6" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="2" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="2" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="2" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="2" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="2" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="2" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="3">
         <v>1136518840</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="2" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="2" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="2" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D14" s="2"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C15" s="2"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B30" s="2"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" s="9">
+        <v>32749190</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" s="6">
+        <v>41406385</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" s="10">
+        <v>35139824</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" s="11">
+        <v>45507487</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" s="12">
+        <v>39854464</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" s="13">
+        <v>43716574</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B23" s="14">
+        <v>17929621</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="6"/>
+      <c r="C24" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Libro.xlsx
+++ b/Libro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ESCRITORIO\TaxiMoto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{820630D4-88DC-46BB-9046-EF3887F465DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14CE24E4-FD2A-4713-A9D5-B63167865B99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4665" yWindow="1410" windowWidth="25080" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="90">
   <si>
     <t>3496-461432</t>
   </si>
@@ -297,6 +297,12 @@
   </si>
   <si>
     <t>florenciatoledo</t>
+  </si>
+  <si>
+    <t>3496-549373</t>
+  </si>
+  <si>
+    <t>julianaleguiza</t>
   </si>
 </sst>
 </file>
@@ -386,7 +392,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -404,10 +410,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -725,7 +728,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1078,7 +1081,7 @@
       <c r="A20" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B20" s="11">
+      <c r="B20" s="9">
         <v>45507487</v>
       </c>
       <c r="C20" s="7" t="s">
@@ -1092,7 +1095,7 @@
       <c r="A21" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B21" s="12">
+      <c r="B21" s="9">
         <v>39854464</v>
       </c>
       <c r="C21" s="7" t="s">
@@ -1106,7 +1109,7 @@
       <c r="A22" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B22" s="13">
+      <c r="B22" s="9">
         <v>43716574</v>
       </c>
       <c r="C22" s="7" t="s">
@@ -1120,7 +1123,7 @@
       <c r="A23" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B23" s="14">
+      <c r="B23" s="9">
         <v>17929621</v>
       </c>
       <c r="C23" s="7" t="s">
@@ -1152,8 +1155,12 @@
       <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
+      <c r="A26" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B26" s="11">
+        <v>43769540</v>
+      </c>
       <c r="C26" s="7" t="s">
         <v>79</v>
       </c>
@@ -1162,14 +1169,15 @@
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
       <c r="B27" s="6"/>
       <c r="C27" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
+      <c r="F27" s="8" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
